--- a/R-Project/input/small_star_wars.xlsx
+++ b/R-Project/input/small_star_wars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zamarin Lab\Documents\GitHub\Umbrella-Academy\R-Project\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D854E975-7143-4982-BA38-8904E0E1E9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5683B5BF-A931-4D8F-80F1-20ADED10C570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="1890" windowWidth="18090" windowHeight="18990" xr2:uid="{20F8EB97-064B-4020-B1F4-7626ECC20C78}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{20F8EB97-064B-4020-B1F4-7626ECC20C78}"/>
   </bookViews>
   <sheets>
     <sheet name="small_star_wars" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -73,15 +73,9 @@
     <t>Human</t>
   </si>
   <si>
-    <t>C-3PO</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>gold</t>
-  </si>
-  <si>
     <t>yellow</t>
   </si>
   <si>
@@ -122,21 +116,6 @@
   </si>
   <si>
     <t>Alderaan</t>
-  </si>
-  <si>
-    <t>Obi-Wan Kenobi</t>
-  </si>
-  <si>
-    <t>auburn, white</t>
-  </si>
-  <si>
-    <t>blue-gray</t>
-  </si>
-  <si>
-    <t>Stewjon</t>
-  </si>
-  <si>
-    <t>Anakin Skywalker</t>
   </si>
   <si>
     <t>Chewbacca</t>
@@ -1015,11 +994,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D38165E-886A-4485-99C3-F91C68E2168A}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1087,66 +1071,66 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
-        <v>167</v>
-      </c>
-      <c r="C3">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
-      </c>
-      <c r="G3">
-        <v>112</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4">
-        <v>33</v>
+        <v>41.9</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1154,28 +1138,28 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="C5">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
       <c r="G5">
-        <v>41.9</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -1183,57 +1167,57 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -1242,102 +1226,6 @@
         <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>188</v>
-      </c>
-      <c r="C8">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>41.9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>228</v>
-      </c>
-      <c r="C9">
-        <v>112</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>200</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>180</v>
-      </c>
-      <c r="C10">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s">
         <v>16</v>
       </c>
     </row>
